--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1527,6 +1527,91 @@
   </si>
   <si>
     <t>Package Item (Container).Shelf Life / Storage</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.modifierExtension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type</t>
+  </si>
+  <si>
+    <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.type</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073343/terms</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.code</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.display</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.text</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.period[x]</t>
+  </si>
+  <si>
+    <t>Duration
+string</t>
+  </si>
+  <si>
+    <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used</t>
+  </si>
+  <si>
+    <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.period[x]</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.shelfLifeStorage.specialPrecautionsForStorage</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
+  </si>
+  <si>
+    <t>ProductShelfLife.specialPrecautionsForStorage</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.manufacturer</t>
@@ -1951,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL143"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1960,7 +2045,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.93359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -15919,7 +16004,7 @@
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15928,16 +16013,16 @@
         <v>73</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>494</v>
+        <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>495</v>
+        <v>152</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15988,37 +16073,37 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>493</v>
+        <v>153</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>496</v>
+        <v>73</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16034,18 +16119,20 @@
         <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>498</v>
+        <v>129</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -16082,19 +16169,19 @@
         <v>73</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>497</v>
+        <v>159</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16106,53 +16193,57 @@
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16200,19 +16291,19 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>153</v>
+        <v>374</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -16221,23 +16312,23 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>73</v>
@@ -16246,20 +16337,18 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>129</v>
+        <v>497</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>73</v>
@@ -16308,19 +16397,19 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16329,48 +16418,44 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
       </c>
@@ -16418,19 +16503,19 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16439,23 +16524,23 @@
         <v>73</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>73</v>
@@ -16464,18 +16549,20 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>505</v>
+        <v>129</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M135" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
@@ -16500,57 +16587,57 @@
         <v>73</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>507</v>
+        <v>73</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>508</v>
+        <v>73</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16561,7 +16648,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16573,16 +16660,20 @@
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>511</v>
+        <v>299</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16630,13 +16721,13 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>510</v>
+        <v>304</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
@@ -16645,18 +16736,18 @@
         <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>514</v>
+        <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16667,7 +16758,7 @@
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16676,16 +16767,16 @@
         <v>73</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>516</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>517</v>
+        <v>152</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16736,44 +16827,44 @@
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>515</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>518</v>
+        <v>73</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16785,15 +16876,17 @@
         <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M138" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
@@ -16830,31 +16923,31 @@
         <v>73</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16868,18 +16961,18 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>73</v>
@@ -16888,21 +16981,23 @@
         <v>73</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16911,7 +17006,7 @@
         <v>73</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>73</v>
@@ -16950,19 +17045,19 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -16971,48 +17066,46 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>154</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17060,19 +17153,19 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>73</v>
@@ -17081,12 +17174,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>125</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17094,7 +17187,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>82</v>
@@ -17109,16 +17202,18 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>523</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>524</v>
+        <v>323</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>525</v>
+        <v>324</v>
       </c>
       <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="N141" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
       </c>
@@ -17166,10 +17261,10 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>522</v>
+        <v>326</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>82</v>
@@ -17181,18 +17276,18 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>526</v>
+        <v>73</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17215,16 +17310,18 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>529</v>
+        <v>330</v>
       </c>
       <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+      <c r="N142" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
       </c>
@@ -17272,7 +17369,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>527</v>
+        <v>332</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17287,18 +17384,18 @@
         <v>94</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>530</v>
+        <v>73</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17309,7 +17406,7 @@
         <v>74</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>73</v>
@@ -17321,16 +17418,20 @@
         <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>532</v>
+        <v>336</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
       </c>
@@ -17378,13 +17479,13 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>531</v>
+        <v>340</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>73</v>
@@ -17393,12 +17494,1830 @@
         <v>94</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AK143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL143" t="s" s="2">
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>82</v>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1705,7 +1705,7 @@
     <t>PackagedProductDefinition.packaging.containedItem.item</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(ManufacturedItemDefinition|DeviceDefinition|PackagedProductDefinition|BiologicallyDerivedProduct|NutritionProduct)
+    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -477,7 +477,7 @@
     <t>PCID for the product. Consists of MPID + unique package code. For the same product PCID is different if the package material is different.</t>
   </si>
   <si>
-    <t>A unique identifier for this package as whole - not the the content of the package. Unique instance identifiers assigned to a package by manufacturers, regulators, drug catalogue custodians or other organizations.</t>
+    <t>EMA IG 4.1</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.id</t>
@@ -740,7 +740,7 @@
     <t>Pack size. Repeated for combination packages.</t>
   </si>
   <si>
-    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
+    <t>EMA IG 4.4</t>
   </si>
   <si>
     <t>PackagedProductDefinition.containedItemQuantity.id</t>
@@ -872,7 +872,7 @@
     <t>Textual description. Note that this is not the name of the package or product</t>
   </si>
   <si>
-    <t>Textual description. Note that this is not the name of the package or product.</t>
+    <t>EMA IG 4.2</t>
   </si>
   <si>
     <t>Packaged Medicinal Product.description</t>
@@ -888,7 +888,7 @@
     <t>Legal status of supply on the packaged product level.</t>
   </si>
   <si>
-    <t>Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
+    <t>EMA IG 4.5. Legal status of supply on the packaged product level. The same information can be repeated/differentiated on the medicinal product level</t>
   </si>
   <si>
     <t>Marketing Authorisation.Legal Status of Supply (for a package)</t>
@@ -1154,7 +1154,7 @@
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
   </si>
   <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
+    <t>EMA IG 4.6</t>
   </si>
   <si>
     <t>Packaged Medicinal Product.Marketing Status</t>
@@ -1386,7 +1386,7 @@
     <t>Container type</t>
   </si>
   <si>
-    <t>The physical type of the container of the items.</t>
+    <t>EMA IG 4.8.1</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/packaging-type</t>
@@ -1441,7 +1441,7 @@
     <t>The quantity of this level of packaging in the package that contains it (with the outermost level being 1)</t>
   </si>
   <si>
-    <t>The quantity of packaging items contained at this layer of the package. This does not relate to the number of contained items but relates solely to the number of packaging items. When looking at the outermost layer it is always 1. If there are two boxes within, at the next layer it would be 2.</t>
+    <t>EMA IG 4.8.5</t>
   </si>
   <si>
     <t>Package Item (Container).Package Item (Container) Quantity</t>
@@ -1453,7 +1453,7 @@
     <t>Material type of the package item</t>
   </si>
   <si>
-    <t>Material type of the package item.</t>
+    <t>EMA IG 4.8.7</t>
   </si>
   <si>
     <t>A material used in the construction of packages and their components.</t>
@@ -1523,7 +1523,7 @@
     <t>Shelf Life and storage information</t>
   </si>
   <si>
-    <t>Shelf Life and storage information.</t>
+    <t>EMA IG 4.12</t>
   </si>
   <si>
     <t>Package Item (Container).Shelf Life / Storage</t>
@@ -1687,7 +1687,7 @@
     <t>An item (inner package or manufactured item) within the packaging</t>
   </si>
   <si>
-    <t>The item(s) within the packaging.</t>
+    <t>EMA IG 4.9 or 4.8.3</t>
   </si>
   <si>
     <t>Package Item (Container).Manufactured Item, Package Item (Container).Device</t>
@@ -1724,7 +1724,7 @@
     <t>Number of the manufactured items (e.g. tablets) in this package layer or the amount of manufactured item (e.g. 20 g) in the unit of presentation defined in manufactured item definition</t>
   </si>
   <si>
-    <t>The number of this type of item within this packaging.</t>
+    <t>EMA IG 4.11.2</t>
   </si>
   <si>
     <t>Manufactured Item.Manufactured Item Quantity</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -828,7 +828,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -984,7 +984,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072051/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000072051</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1126,7 +1126,7 @@
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000000002/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.version</t>
@@ -1259,7 +1259,7 @@
     <t>PackagedProductDefinition.marketingStatus.status.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072052/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000072052</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.status.coding.version</t>
@@ -1413,7 +1413,7 @@
     <t>PackagedProductDefinition.packaging.type.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073346/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.type.coding.version</t>
@@ -1483,7 +1483,7 @@
     <t>PackagedProductDefinition.packaging.material.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000003199/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.material.coding.version</t>
@@ -1568,7 +1568,7 @@
     <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073343/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.shelfLifeStorage.type.coding.version</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -689,7 +689,7 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -1705,7 +1705,7 @@
     <t>PackagedProductDefinition.packaging.containedItem.item</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">CodeableReference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
